--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_July-2021.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_July-2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>SlNo</t>
   </si>
@@ -98,6 +98,33 @@
   </si>
   <si>
     <t>practising the spring boot using annotations</t>
+  </si>
+  <si>
+    <t>java and jbpm session</t>
+  </si>
+  <si>
+    <t>spring boot basic &amp; rest concept,jbpm practice</t>
+  </si>
+  <si>
+    <t>java session &amp; meeting  based pn spring boot restapi web service</t>
+  </si>
+  <si>
+    <t>spring boot pratice &amp;  jbpm api practice ,websevices practisining</t>
+  </si>
+  <si>
+    <t>JBPMN</t>
+  </si>
+  <si>
+    <t>problems facin the jbpmn</t>
+  </si>
+  <si>
+    <t>revision and exploring things  by practsing</t>
+  </si>
+  <si>
+    <t>practising the hr task,email,rest api,problems facing</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> java session based on rest template,hibernate</t>
   </si>
 </sst>
 </file>
@@ -296,7 +323,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -313,6 +340,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,7 +354,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
@@ -609,28 +641,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:B15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="11.42578125" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="54.85546875" customWidth="1"/>
+    <col min="5" max="5" width="63.42578125" customWidth="1"/>
     <col min="6" max="6" width="52.5703125" customWidth="1"/>
     <col min="7" max="7" width="0.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -650,136 +682,136 @@
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="18">
         <v>44379</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="20">
+      <c r="F4" s="17">
         <v>5</v>
       </c>
-      <c r="G4" s="17"/>
+      <c r="G4" s="14"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>2</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="18">
         <v>44379</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="17">
         <v>6.5</v>
       </c>
-      <c r="G5" s="17"/>
+      <c r="G5" s="14"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="19">
+      <c r="B6" s="16">
         <v>3</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="18">
         <v>44380</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="17">
         <v>4.5</v>
       </c>
-      <c r="G6" s="17"/>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="19">
+      <c r="B7" s="16">
         <v>4</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="18">
         <v>44380</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="17">
         <v>5</v>
       </c>
-      <c r="G7" s="17"/>
+      <c r="G7" s="14"/>
     </row>
     <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="19">
+      <c r="B8" s="16">
         <v>5</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="18">
         <v>44382</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="17">
         <v>2</v>
       </c>
-      <c r="G8" s="17"/>
+      <c r="G8" s="14"/>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="19">
+      <c r="B9" s="16">
         <v>6</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="18">
         <v>44382</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="18" t="s">
+      <c r="E9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F9" s="17">
         <v>3</v>
       </c>
-      <c r="G9" s="17"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="19">
+      <c r="B10" s="16">
         <v>7</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="18">
         <v>44382</v>
       </c>
-      <c r="D10" s="18" t="s">
+      <c r="D10" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="18" t="s">
+      <c r="E10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="17">
         <v>2</v>
       </c>
-      <c r="G10" s="17"/>
+      <c r="G10" s="14"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <v>8</v>
       </c>
-      <c r="C11" s="21">
+      <c r="C11" s="18">
         <v>44382</v>
       </c>
       <c r="D11" s="13" t="s">
@@ -796,7 +828,7 @@
       <c r="B12" s="2">
         <v>9</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>44383</v>
       </c>
       <c r="D12" s="13" t="s">
@@ -810,13 +842,13 @@
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="19">
+      <c r="B13" s="16">
         <v>10</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>44383</v>
       </c>
-      <c r="D13" s="18" t="s">
+      <c r="D13" s="15" t="s">
         <v>21</v>
       </c>
       <c r="E13" s="13" t="s">
@@ -827,10 +859,10 @@
       </c>
     </row>
     <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="19">
+      <c r="B14" s="16">
         <v>11</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>44383</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -844,10 +876,10 @@
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="19">
+      <c r="B15" s="16">
         <v>12</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>44383</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -862,118 +894,199 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
+      <c r="B16" s="24">
+        <v>13</v>
+      </c>
+      <c r="C16" s="26">
+        <v>44384</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="24">
+        <v>14</v>
+      </c>
+      <c r="C17" s="26">
+        <v>44384</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="25">
+        <v>7</v>
+      </c>
+      <c r="G17" s="22">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <v>15</v>
+      </c>
+      <c r="C18" s="26">
+        <v>44385</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="F18" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26">
+        <v>44385</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26">
+        <v>44386</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="24">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26">
+        <v>44386</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="26">
+        <v>44387</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="24">
+        <v>20</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="3"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="2"/>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="24">
+        <v>21</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="3"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="3"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="3"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="3"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="3"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="3"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="3"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="3"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1797,13 +1910,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="16"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">

--- a/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_July-2021.xlsx
+++ b/Pavithra/Timesheet/Schwall_Pavithra_Timesheet1_July-2021.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
   <si>
     <t>SlNo</t>
   </si>
@@ -125,6 +125,93 @@
   </si>
   <si>
     <t xml:space="preserve"> java session based on rest template,hibernate</t>
+  </si>
+  <si>
+    <t>Discussion  with teaam member about JBPM</t>
+  </si>
+  <si>
+    <t>JBPM practice</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>Searching interview jbpm questions</t>
+  </si>
+  <si>
+    <t>JBPM session &amp; team discussion</t>
+  </si>
+  <si>
+    <t>JBPM interview question preparation</t>
+  </si>
+  <si>
+    <t>Interview question discussion with team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM </t>
+  </si>
+  <si>
+    <t>java and jbpm</t>
+  </si>
+  <si>
+    <t>revision</t>
+  </si>
+  <si>
+    <t>interview discussion</t>
+  </si>
+  <si>
+    <t>interview question discussion with team</t>
+  </si>
+  <si>
+    <t>Jbpm session</t>
+  </si>
+  <si>
+    <t>java revision</t>
+  </si>
+  <si>
+    <t>java &amp; jbpm</t>
+  </si>
+  <si>
+    <t>JPBM pratice</t>
+  </si>
+  <si>
+    <t>learnt jbpm basic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JBPM VMS Front end development team </t>
+  </si>
+  <si>
+    <t>jbpm que &amp; java</t>
+  </si>
+  <si>
+    <t>VMS database session with team</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vms practice </t>
+  </si>
+  <si>
+    <t>Interview question &amp; vms practise</t>
+  </si>
+  <si>
+    <t>java discussion with team</t>
+  </si>
+  <si>
+    <t>practice  and preparation for interview</t>
+  </si>
+  <si>
+    <t>vms team session and practice</t>
+  </si>
+  <si>
+    <t>java session &amp; vms project,oraclre rest template pratcising</t>
+  </si>
+  <si>
+    <t>practised with jdbc template</t>
+  </si>
+  <si>
+    <t>Implement vms flow diagram</t>
+  </si>
+  <si>
+    <t>vms diagram with jbpm,issued faced</t>
   </si>
 </sst>
 </file>
@@ -323,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
@@ -345,6 +432,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,11 +453,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:G145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -656,13 +750,13 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
@@ -894,107 +988,107 @@
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="24">
+      <c r="B16" s="21">
         <v>13</v>
       </c>
-      <c r="C16" s="26">
+      <c r="C16" s="23">
         <v>44384</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="23" t="s">
+      <c r="E16" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="22">
         <v>4</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="B17" s="21">
         <v>14</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="23">
         <v>44384</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E17" s="23" t="s">
+      <c r="E17" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="22">
         <v>7</v>
       </c>
-      <c r="G17" s="22">
+      <c r="G17" s="19">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
+      <c r="B18" s="21">
         <v>15</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="23">
         <v>44385</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E18" s="23" t="s">
+      <c r="E18" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
+      <c r="B19" s="21">
         <v>16</v>
       </c>
-      <c r="C19" s="26">
+      <c r="C19" s="23">
         <v>44385</v>
       </c>
-      <c r="D19" s="23" t="s">
+      <c r="D19" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="23" t="s">
+      <c r="E19" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="22">
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
+      <c r="B20" s="21">
         <v>17</v>
       </c>
-      <c r="C20" s="26">
+      <c r="C20" s="23">
         <v>44386</v>
       </c>
-      <c r="D20" s="23" t="s">
+      <c r="D20" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="23" t="s">
+      <c r="E20" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="22">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+      <c r="B21" s="21">
         <v>18</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="23">
         <v>44386</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="E21" s="23" t="s">
+      <c r="E21" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="22">
         <v>5</v>
       </c>
     </row>
@@ -1002,7 +1096,7 @@
       <c r="B22" s="2">
         <v>19</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="23">
         <v>44387</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1016,7 +1110,7 @@
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+      <c r="B23" s="21">
         <v>20</v>
       </c>
       <c r="C23" s="1"/>
@@ -1029,194 +1123,463 @@
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+      <c r="B24" s="21">
         <v>21</v>
       </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="3"/>
+      <c r="C24" s="27">
+        <v>44389</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="F24" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="2"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="3"/>
+      <c r="B25" s="25">
+        <v>22</v>
+      </c>
+      <c r="C25" s="27">
+        <v>44389</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="2"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="3"/>
+      <c r="B26" s="25">
+        <v>23</v>
+      </c>
+      <c r="C26" s="27">
+        <v>44389</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="3"/>
+      <c r="B27" s="25">
+        <v>24</v>
+      </c>
+      <c r="C27" s="27">
+        <v>44390</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="3"/>
+      <c r="B28" s="25">
+        <v>25</v>
+      </c>
+      <c r="C28" s="27">
+        <v>44390</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F28" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="3"/>
+      <c r="B29" s="25">
+        <v>26</v>
+      </c>
+      <c r="C29" s="27">
+        <v>44391</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="3"/>
+      <c r="B30" s="25">
+        <v>27</v>
+      </c>
+      <c r="C30" s="27">
+        <v>44391</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="3"/>
+      <c r="B31" s="25">
+        <v>28</v>
+      </c>
+      <c r="C31" s="27">
+        <v>44392</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" s="26">
+        <v>8</v>
+      </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="3"/>
+      <c r="B32" s="25">
+        <v>29</v>
+      </c>
+      <c r="C32" s="27">
+        <v>44393</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="F32" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="3"/>
+      <c r="B33" s="25">
+        <v>30</v>
+      </c>
+      <c r="C33" s="27">
+        <v>44393</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="26">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="3"/>
+      <c r="B34" s="25">
+        <v>31</v>
+      </c>
+      <c r="C34" s="27">
+        <v>44393</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="F34" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="3"/>
+      <c r="B35" s="25">
+        <v>32</v>
+      </c>
+      <c r="C35" s="27">
+        <v>44394</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35" s="26">
+        <v>9</v>
+      </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="10"/>
+      <c r="B36" s="25">
+        <v>33</v>
+      </c>
+      <c r="C36" s="27">
+        <v>44396</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="F36" s="26">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="10"/>
+      <c r="B37" s="25">
+        <v>34</v>
+      </c>
+      <c r="C37" s="27">
+        <v>44396</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="F37" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="10"/>
+      <c r="B38" s="25">
+        <v>35</v>
+      </c>
+      <c r="C38" s="27">
+        <v>44397</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F38" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="10"/>
+      <c r="B39" s="25">
+        <v>36</v>
+      </c>
+      <c r="C39" s="27">
+        <v>44397</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F39" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="10"/>
+      <c r="B40" s="25">
+        <v>37</v>
+      </c>
+      <c r="C40" s="27">
+        <v>44398</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F40" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="10"/>
+      <c r="B41" s="25">
+        <v>38</v>
+      </c>
+      <c r="C41" s="27">
+        <v>44398</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="10"/>
+      <c r="B42" s="25">
+        <v>39</v>
+      </c>
+      <c r="C42" s="27">
+        <v>44399</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="F42" s="26">
+        <v>3</v>
+      </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="10"/>
+      <c r="B43" s="25">
+        <v>40</v>
+      </c>
+      <c r="C43" s="27">
+        <v>44399</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="F43" s="26">
+        <v>6</v>
+      </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="10"/>
+      <c r="B44" s="25">
+        <v>41</v>
+      </c>
+      <c r="C44" s="27">
+        <v>44400</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="F44" s="26">
+        <v>4</v>
+      </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="10"/>
+      <c r="B45" s="25">
+        <v>42</v>
+      </c>
+      <c r="C45" s="27">
+        <v>44400</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F45" s="26">
+        <v>5</v>
+      </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="10"/>
+      <c r="B46" s="25">
+        <v>43</v>
+      </c>
+      <c r="C46" s="27">
+        <v>44403</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F46" s="26">
+        <v>13</v>
+      </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="10"/>
+      <c r="B47" s="25">
+        <v>44</v>
+      </c>
+      <c r="C47" s="27">
+        <v>44404</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="26">
+        <v>10</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="10"/>
+      <c r="B48" s="25">
+        <v>45</v>
+      </c>
+      <c r="C48" s="27">
+        <v>44405</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F48" s="28">
+        <v>4</v>
+      </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="10"/>
+      <c r="B49" s="25">
+        <v>46</v>
+      </c>
+      <c r="C49" s="27">
+        <v>44405</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F49" s="28">
+        <v>3</v>
+      </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="10"/>
+      <c r="B50" s="25">
+        <v>47</v>
+      </c>
+      <c r="C50" s="27">
+        <v>44405</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="F50" s="28">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
@@ -1910,13 +2273,13 @@
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:6" ht="21" x14ac:dyDescent="0.35">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="31"/>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="7" t="s">
